--- a/app/Licenciatura_em_Meteorologia.xlsx
+++ b/app/Licenciatura_em_Meteorologia.xlsx
@@ -40,979 +40,16 @@
     <sheet name="20153652" sheetId="30" r:id="rId33"/>
     <sheet name="20153650" sheetId="31" r:id="rId34"/>
     <sheet name="20153665" sheetId="32" r:id="rId35"/>
-    <sheet name="20154478" sheetId="33" r:id="rId36"/>
-    <sheet name="20153653" sheetId="34" r:id="rId37"/>
-    <sheet name="20153648" sheetId="35" r:id="rId38"/>
-    <sheet name="20153638" sheetId="36" r:id="rId39"/>
-    <sheet name="20153640" sheetId="37" r:id="rId40"/>
-    <sheet name="Sheet2" sheetId="38" r:id="rId41"/>
-    <sheet name="Sheet3" sheetId="39" r:id="rId42"/>
+    <sheet name="20153653" sheetId="33" r:id="rId36"/>
+    <sheet name="20153648" sheetId="34" r:id="rId37"/>
+    <sheet name="20153638" sheetId="35" r:id="rId38"/>
+    <sheet name="20153640" sheetId="36" r:id="rId39"/>
+    <sheet name="Sheet2" sheetId="37" r:id="rId40"/>
+    <sheet name="Sheet3" sheetId="38" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
-  <si>
-    <t>UNIVERSIDADE EDUARDO MONDLANE</t>
-  </si>
-  <si>
-    <t>BOLETIM DE MATRÍCULA</t>
-  </si>
-  <si>
-    <t>Faculdade de Letras e Ciencias Sociais</t>
-  </si>
-  <si>
-    <t>Licenciatura em Administração Pública</t>
-  </si>
-  <si>
-    <t>Ano Lectivo:</t>
-  </si>
-  <si>
-    <t>Número de Estudante:</t>
-  </si>
-  <si>
-    <t>I.DADOS PESSOAIS</t>
-  </si>
-  <si>
-    <t>Apelido</t>
-  </si>
-  <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>Nome Completo</t>
-  </si>
-  <si>
-    <t>Elisio</t>
-  </si>
-  <si>
-    <t>Data de Nascimento</t>
-  </si>
-  <si>
-    <t>Filho de</t>
-  </si>
-  <si>
-    <t>E de</t>
-  </si>
-  <si>
-    <t>Natural de</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Nacionalidade</t>
-  </si>
-  <si>
-    <t>Estado Civil</t>
-  </si>
-  <si>
-    <t>Documento de Identificação</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Emitido Por</t>
-  </si>
-  <si>
-    <t>Em</t>
-  </si>
-  <si>
-    <t>II.ENDEREÇO - TEMPO LECTIVO</t>
-  </si>
-  <si>
-    <t>Distrito</t>
-  </si>
-  <si>
-    <t>Bairro</t>
-  </si>
-  <si>
-    <t>Rua</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Telefone Fixo</t>
-  </si>
-  <si>
-    <t>Quarteirão</t>
-  </si>
-  <si>
-    <t>Tel. Emergencia</t>
-  </si>
-  <si>
-    <t>III. HISTORIAL ACADÉMICO</t>
-  </si>
-  <si>
-    <t>Ano de conclusão do nível anterior</t>
-  </si>
-  <si>
-    <t>Nota Final</t>
-  </si>
-  <si>
-    <t>Local de Conclusão</t>
-  </si>
-  <si>
-    <t>Província</t>
-  </si>
-  <si>
-    <t>IV. COMPROMISSO DE HONRA</t>
-  </si>
-  <si>
-    <t>Juro por minhha honra que todos os dados são verdadeiros e fidedignos</t>
-  </si>
-  <si>
-    <t>Data automática</t>
-  </si>
-  <si>
-    <t>Assinatura do estudante</t>
-  </si>
-  <si>
-    <t>_______________________________________________________</t>
-  </si>
-  <si>
-    <t>Universidade Eduardo Mondlane</t>
-  </si>
-  <si>
-    <t>Faculdade de Ciências</t>
-  </si>
-  <si>
-    <t>Licenciatura em Meteorologia</t>
-  </si>
-  <si>
-    <t>Zavala</t>
-  </si>
-  <si>
-    <t>Leonardo EusÉbio</t>
-  </si>
-  <si>
-    <t>1997-11-16</t>
-  </si>
-  <si>
-    <t>EusÉbio Bernardo Zavala</t>
-  </si>
-  <si>
-    <t>HortÊncia L. Chiconela</t>
-  </si>
-  <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Moçambique</t>
-  </si>
-  <si>
-    <t>Solteiro</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>110101861922S</t>
-  </si>
-  <si>
-    <t>+258826153774</t>
-  </si>
-  <si>
-    <t>Outra - Prov Maputo</t>
-  </si>
-  <si>
-    <t>Valoi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto Valentim </t>
-  </si>
-  <si>
-    <t>1998-03-08</t>
-  </si>
-  <si>
-    <t>Valentim Francisco Valoi</t>
-  </si>
-  <si>
-    <t>Sandra Ernestina Nhocuane</t>
-  </si>
-  <si>
-    <t>110102391518N</t>
-  </si>
-  <si>
-    <t>+258823597614</t>
-  </si>
-  <si>
-    <t>Romao</t>
-  </si>
-  <si>
-    <t>Arlindo Mussa</t>
-  </si>
-  <si>
-    <t>1996-06-23</t>
-  </si>
-  <si>
-    <t>Mussa Romao</t>
-  </si>
-  <si>
-    <t>Sauna Arlindo</t>
-  </si>
-  <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
-    <t>020102291628C</t>
-  </si>
-  <si>
-    <t>+258842901456</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Pemba</t>
-  </si>
-  <si>
-    <t>Peleve</t>
-  </si>
-  <si>
-    <t>Dionildo Alvaro</t>
-  </si>
-  <si>
-    <t>1996-04-26</t>
-  </si>
-  <si>
-    <t>Alvaro Bernardo F. Peleve</t>
-  </si>
-  <si>
-    <t>Zaida Justino Mazive</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
-    <t>110101562760P</t>
-  </si>
-  <si>
-    <t>+258821826854</t>
-  </si>
-  <si>
-    <t>Escola Francisco Manyanga</t>
-  </si>
-  <si>
-    <t>Nhatsodo</t>
-  </si>
-  <si>
-    <t>Gerson Jacinto</t>
-  </si>
-  <si>
-    <t>1995-10-10</t>
-  </si>
-  <si>
-    <t>Jacinto SabÃo Nhatsodo</t>
-  </si>
-  <si>
-    <t>Flora Januario Munguambe</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
-    <t>110501438184A</t>
-  </si>
-  <si>
-    <t>+258861489849</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Quisse Mavota</t>
-  </si>
-  <si>
-    <t>Nhantumbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helder Silvestre Leonardo </t>
-  </si>
-  <si>
-    <t>1990-12-07</t>
-  </si>
-  <si>
-    <t>Leonardo Julio Nhantumbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelina </t>
-  </si>
-  <si>
-    <t>11O1011856242A</t>
-  </si>
-  <si>
-    <t>+258840133619</t>
-  </si>
-  <si>
-    <t>Nhampulo</t>
-  </si>
-  <si>
-    <t>Rosa Arnaldo</t>
-  </si>
-  <si>
-    <t>1995-01-28</t>
-  </si>
-  <si>
-    <t>Arnaldo Zeca Nhampulo</t>
-  </si>
-  <si>
-    <t>Matilde Carlos Langa</t>
-  </si>
-  <si>
-    <t>110104485215J</t>
-  </si>
-  <si>
-    <t>+258822811450</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Matola</t>
-  </si>
-  <si>
-    <t>Nhaca</t>
-  </si>
-  <si>
-    <t>Jose Festa</t>
-  </si>
-  <si>
-    <t>1996-11-01</t>
-  </si>
-  <si>
-    <t>Festa Muchabingo Nhaca</t>
-  </si>
-  <si>
-    <t>Veronica Jesso Chirrinze</t>
-  </si>
-  <si>
-    <t>100104296505Q</t>
-  </si>
-  <si>
-    <t>+820160190</t>
-  </si>
-  <si>
-    <t>Mutuque</t>
-  </si>
-  <si>
-    <t>Milagre Armando</t>
-  </si>
-  <si>
-    <t>1989-08-16</t>
-  </si>
-  <si>
-    <t>Armando Julai</t>
-  </si>
-  <si>
-    <t>Carolina Mutuque</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
-    <t>110101833685L</t>
-  </si>
-  <si>
-    <t>+258840685233</t>
-  </si>
-  <si>
-    <t>Outra - Cid.Maputo</t>
-  </si>
-  <si>
-    <t>Mungoi</t>
-  </si>
-  <si>
-    <t>Virginio Leonardo</t>
-  </si>
-  <si>
-    <t>1994-03-02</t>
-  </si>
-  <si>
-    <t>Zaida</t>
-  </si>
-  <si>
-    <t>110102143890I</t>
-  </si>
-  <si>
-    <t>+258840408763</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Noroeste 1</t>
-  </si>
-  <si>
-    <t>Moamba</t>
-  </si>
-  <si>
-    <t>Simao Dias</t>
-  </si>
-  <si>
-    <t>1995-07-22</t>
-  </si>
-  <si>
-    <t>Dias Herminio Moamba</t>
-  </si>
-  <si>
-    <t>Teresa Simao Nhangumbe</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
-    <t>110200573233N</t>
-  </si>
-  <si>
-    <t>+258844098682</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Laulane</t>
-  </si>
-  <si>
-    <t>Mbalane</t>
-  </si>
-  <si>
-    <t>Bernardo Armando</t>
-  </si>
-  <si>
-    <t>1991-04-04</t>
-  </si>
-  <si>
-    <t>Armando Maceda Mbalane</t>
-  </si>
-  <si>
-    <t>Henriqueta SalomÃo Magaia</t>
-  </si>
-  <si>
-    <t>110501484148S</t>
-  </si>
-  <si>
-    <t>+258849538493</t>
-  </si>
-  <si>
-    <t>Mazuze</t>
-  </si>
-  <si>
-    <t>AntÓnio Raimundo</t>
-  </si>
-  <si>
-    <t>1994-02-12</t>
-  </si>
-  <si>
-    <t>Raimundo AntÓnio Mazuze</t>
-  </si>
-  <si>
-    <t>Ana Celina Tembe</t>
-  </si>
-  <si>
-    <t>100100775567M</t>
-  </si>
-  <si>
-    <t>+258845247604</t>
-  </si>
-  <si>
-    <t>Mausse</t>
-  </si>
-  <si>
-    <t>Ernesto Arnaldo</t>
-  </si>
-  <si>
-    <t>1994-01-02</t>
-  </si>
-  <si>
-    <t>Incognito</t>
-  </si>
-  <si>
-    <t>Aventina Alfredo Tamele</t>
-  </si>
-  <si>
-    <t>110502651801B</t>
-  </si>
-  <si>
-    <t>+258848132805</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Zona-Verde</t>
-  </si>
-  <si>
-    <t>Matevuca</t>
-  </si>
-  <si>
-    <t>AntÓnio Alfredo</t>
-  </si>
-  <si>
-    <t>1995-08-25</t>
-  </si>
-  <si>
-    <t>Alfredo Matevuca</t>
-  </si>
-  <si>
-    <t>Elisa Uamba</t>
-  </si>
-  <si>
-    <t>110102678407C</t>
-  </si>
-  <si>
-    <t>+258848250741</t>
-  </si>
-  <si>
-    <t>Massango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artimiza Alfredo </t>
-  </si>
-  <si>
-    <t>1995-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfredo Juliao Massango </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenia Chadraca Nunes </t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>110502310653M</t>
-  </si>
-  <si>
-    <t>+258826508975</t>
-  </si>
-  <si>
-    <t>Mapsanganhe</t>
-  </si>
-  <si>
-    <t>Etineldio Simiao</t>
-  </si>
-  <si>
-    <t>1996-05-09</t>
-  </si>
-  <si>
-    <t>Simiao Aurelio Mapsanganhe</t>
-  </si>
-  <si>
-    <t>Eugenia Refu Alfeu</t>
-  </si>
-  <si>
-    <t>110100337121N</t>
-  </si>
-  <si>
-    <t>+258828383007</t>
-  </si>
-  <si>
-    <t>Maoze</t>
-  </si>
-  <si>
-    <t>Adia Rosa</t>
-  </si>
-  <si>
-    <t>1997-03-25</t>
-  </si>
-  <si>
-    <t>Venancio Bento Maoze</t>
-  </si>
-  <si>
-    <t>Carmelina Estrela E Mambo</t>
-  </si>
-  <si>
-    <t>110101297955C</t>
-  </si>
-  <si>
-    <t>+258840256090</t>
-  </si>
-  <si>
-    <t>Manguele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joao Dos Santos </t>
-  </si>
-  <si>
-    <t>1989-10-06</t>
-  </si>
-  <si>
-    <t>Jochua Joao</t>
-  </si>
-  <si>
-    <t>Marta Neves</t>
-  </si>
-  <si>
-    <t>110100049867B</t>
-  </si>
-  <si>
-    <t>+258847576876</t>
-  </si>
-  <si>
-    <t>Malate</t>
-  </si>
-  <si>
-    <t>Osvaldo Jose</t>
-  </si>
-  <si>
-    <t>1997-01-29</t>
-  </si>
-  <si>
-    <t>Jose Alberto Malate</t>
-  </si>
-  <si>
-    <t>Leopoldina Rafael Guambe</t>
-  </si>
-  <si>
-    <t>Distrito de Homoine</t>
-  </si>
-  <si>
-    <t>080402585645P</t>
-  </si>
-  <si>
-    <t>+258820774351</t>
-  </si>
-  <si>
-    <t>Outra - Prov Inhambane</t>
-  </si>
-  <si>
-    <t>Lihahe</t>
-  </si>
-  <si>
-    <t>Ester Pedro</t>
-  </si>
-  <si>
-    <t>1995-10-23</t>
-  </si>
-  <si>
-    <t>Pedro Alfabeto Lihahe</t>
-  </si>
-  <si>
-    <t>Rosa LourenÇo Nhambe</t>
-  </si>
-  <si>
-    <t>110301327557B</t>
-  </si>
-  <si>
-    <t>+258842725413</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Malhazine</t>
-  </si>
-  <si>
-    <t>Inguane</t>
-  </si>
-  <si>
-    <t>Ederio Luis Germano Inguane Junior</t>
-  </si>
-  <si>
-    <t>1998-04-05</t>
-  </si>
-  <si>
-    <t>Ederio Luis Germano Inguane</t>
-  </si>
-  <si>
-    <t>Celestina Cossa Inguane</t>
-  </si>
-  <si>
-    <t>110100482289S</t>
-  </si>
-  <si>
-    <t>+258842096575</t>
-  </si>
-  <si>
-    <t>Guirrugo</t>
-  </si>
-  <si>
-    <t>Isac Arnaldo</t>
-  </si>
-  <si>
-    <t>1996-07-07</t>
-  </si>
-  <si>
-    <t>Arnaldo Diogo Guirrugo</t>
-  </si>
-  <si>
-    <t>Albertina Alberto Cumbane</t>
-  </si>
-  <si>
-    <t>110101363217I</t>
-  </si>
-  <si>
-    <t>+258848214960</t>
-  </si>
-  <si>
-    <t>Guilovissa</t>
-  </si>
-  <si>
-    <t>Beatriz Alexandre</t>
-  </si>
-  <si>
-    <t>1996-11-02</t>
-  </si>
-  <si>
-    <t>Alexandre Antonio Guilovissa</t>
-  </si>
-  <si>
-    <t>Nelia Teodosio Langa</t>
-  </si>
-  <si>
-    <t>100501194313P</t>
-  </si>
-  <si>
-    <t>+258847439797</t>
-  </si>
-  <si>
-    <t>Gomes</t>
-  </si>
-  <si>
-    <t>Rosalda Alfredo</t>
-  </si>
-  <si>
-    <t>1995-12-10</t>
-  </si>
-  <si>
-    <t>Alfredo Agostinho Gomes</t>
-  </si>
-  <si>
-    <t>Isaura Jonas Miambo</t>
-  </si>
-  <si>
-    <t>100101528614B</t>
-  </si>
-  <si>
-    <t>+258847453213</t>
-  </si>
-  <si>
-    <t>Fernandes</t>
-  </si>
-  <si>
-    <t>Casimiro Manuel</t>
-  </si>
-  <si>
-    <t>1995-08-21</t>
-  </si>
-  <si>
-    <t>Manuel Henriques C.fernandes</t>
-  </si>
-  <si>
-    <t>Julia Alberto Francisco</t>
-  </si>
-  <si>
-    <t>110501245329A</t>
-  </si>
-  <si>
-    <t>+258847712209</t>
-  </si>
-  <si>
-    <t>Dimande</t>
-  </si>
-  <si>
-    <t>Francisco Paulino</t>
-  </si>
-  <si>
-    <t>1996-01-13</t>
-  </si>
-  <si>
-    <t>Paulino Dimande</t>
-  </si>
-  <si>
-    <t>Elsa Francisco Lacita</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
-    <t>110100735977S</t>
-  </si>
-  <si>
-    <t>+258825069974</t>
-  </si>
-  <si>
-    <t>Chissico</t>
-  </si>
-  <si>
-    <t>Fernanda De Jesus</t>
-  </si>
-  <si>
-    <t>1996-12-23</t>
-  </si>
-  <si>
-    <t>Alexandre M. Chissico</t>
-  </si>
-  <si>
-    <t>Maria F. De Jesus Menete</t>
-  </si>
-  <si>
-    <t>11010228024M</t>
-  </si>
-  <si>
-    <t>+258847872943</t>
-  </si>
-  <si>
-    <t>Chambal</t>
-  </si>
-  <si>
-    <t>Elton Filimone</t>
-  </si>
-  <si>
-    <t>1985-10-30</t>
-  </si>
-  <si>
-    <t>Filimone Jose Chambal</t>
-  </si>
-  <si>
-    <t>Ana Paula Miseria Pedro</t>
-  </si>
-  <si>
-    <t>090601674358B</t>
-  </si>
-  <si>
-    <t>+258827579987</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Chokwe</t>
-  </si>
-  <si>
-    <t>Carneti</t>
-  </si>
-  <si>
-    <t>Jabulane Joaquim Francisco Carneti</t>
-  </si>
-  <si>
-    <t>1993-02-03</t>
-  </si>
-  <si>
-    <t>Francisco Carneti</t>
-  </si>
-  <si>
-    <t>Maria Rosa Joaquim Maquival</t>
-  </si>
-  <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
-    <t>041000723787P</t>
-  </si>
-  <si>
-    <t>+258844339207</t>
-  </si>
-  <si>
-    <t>Escola Secundaria 25 de Setembro</t>
-  </si>
-  <si>
-    <t>Boa</t>
-  </si>
-  <si>
-    <t>Milton Telma</t>
-  </si>
-  <si>
-    <t>1993-10-27</t>
-  </si>
-  <si>
-    <t>SalomÉ Telma Boa</t>
-  </si>
-  <si>
-    <t>100101644041I</t>
-  </si>
-  <si>
-    <t>+258843719092</t>
-  </si>
-  <si>
-    <t>Colegio Arco-Iris</t>
-  </si>
-  <si>
-    <t>Bilal</t>
-  </si>
-  <si>
-    <t>Helga Patricia Dimen</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Banze</t>
-  </si>
-  <si>
-    <t>Julio FÉlix</t>
-  </si>
-  <si>
-    <t>1993-08-17</t>
-  </si>
-  <si>
-    <t>FÉlix JosÉ Banze</t>
-  </si>
-  <si>
-    <t>Joana Mutisse</t>
-  </si>
-  <si>
-    <t>110100534746S</t>
-  </si>
-  <si>
-    <t>+258842519028</t>
-  </si>
-  <si>
-    <t>Baloi</t>
-  </si>
-  <si>
-    <t>Oecas Francisco</t>
-  </si>
-  <si>
-    <t>1997-04-23</t>
-  </si>
-  <si>
-    <t>Francisco Antonio Baloi</t>
-  </si>
-  <si>
-    <t>Janete Andre Cambaco</t>
-  </si>
-  <si>
-    <t>1001000292901B</t>
-  </si>
-  <si>
-    <t>+258845137882</t>
-  </si>
-  <si>
-    <t>António</t>
-  </si>
-  <si>
-    <t>Carmen Agapito</t>
-  </si>
-  <si>
-    <t>1996-11-11</t>
-  </si>
-  <si>
-    <t>Agapito AntÓnio</t>
-  </si>
-  <si>
-    <t>Balbina Oliveira Samuel</t>
-  </si>
-  <si>
-    <t>110101592876I</t>
-  </si>
-  <si>
-    <t>+258848070398</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Lhanguene</t>
-  </si>
-  <si>
-    <t>Amade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hassane Antonio </t>
-  </si>
-  <si>
-    <t>1996-07-22</t>
-  </si>
-  <si>
-    <t>Antonio Salomao Amade</t>
-  </si>
-  <si>
-    <t>Judite Silvino Nhalungo</t>
-  </si>
-  <si>
-    <t>081402455151I</t>
-  </si>
-  <si>
-    <t>+258820864979</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1285,291 +322,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -2270,7 +1022,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2286,7 +1038,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2302,7 +1054,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2318,7 +1070,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2334,7 +1086,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2349,9 +1101,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>118</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2359,7 +1109,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2370,7 +1120,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2379,7 +1129,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2391,7 +1141,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2399,7 +1149,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2495,7 +1245,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2538,7 +1288,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2865,7 +1615,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2881,7 +1631,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2897,7 +1647,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2929,7 +1679,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2944,9 +1694,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>118</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2954,7 +1702,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2965,7 +1713,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2974,7 +1722,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2986,7 +1734,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2994,7 +1742,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3090,7 +1838,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3133,7 +1881,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3460,7 +2208,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3476,7 +2224,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3492,7 +2240,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3508,7 +2256,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3524,7 +2272,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3539,9 +2287,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3549,7 +2295,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3560,7 +2306,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3569,7 +2315,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3581,7 +2327,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3589,7 +2335,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3685,7 +2431,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3728,7 +2474,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4055,7 +2801,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4071,7 +2817,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4087,7 +2833,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4103,7 +2849,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4119,7 +2865,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4134,9 +2880,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4144,7 +2888,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4155,7 +2899,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4164,7 +2908,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4176,7 +2920,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4184,7 +2928,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4280,7 +3024,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4323,7 +3067,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4650,7 +3394,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4666,7 +3410,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4682,7 +3426,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4698,7 +3442,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4714,7 +3458,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4729,9 +3473,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4739,7 +3481,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4750,7 +3492,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4759,7 +3501,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4771,7 +3513,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4779,7 +3521,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4875,7 +3617,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4918,7 +3660,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5245,7 +3987,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5261,7 +4003,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5277,7 +4019,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5293,7 +4035,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5309,7 +4051,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5324,9 +4066,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5334,7 +4074,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5345,7 +4085,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5354,7 +4094,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5366,7 +4106,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5374,7 +4114,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5470,7 +4210,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5513,7 +4253,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5840,7 +4580,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5856,7 +4596,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5872,7 +4612,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5888,7 +4628,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5904,7 +4644,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5919,9 +4659,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5929,7 +4667,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5940,7 +4678,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5949,7 +4687,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5961,7 +4699,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5969,7 +4707,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6065,7 +4803,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6108,7 +4846,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6435,7 +5173,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6451,7 +5189,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6467,7 +5205,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6483,7 +5221,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6499,7 +5237,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6514,9 +5252,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6524,7 +5260,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6535,7 +5271,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6544,7 +5280,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6556,7 +5292,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6564,7 +5300,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6660,7 +5396,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6703,7 +5439,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7030,7 +5766,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7046,7 +5782,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7062,7 +5798,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7078,7 +5814,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7094,7 +5830,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7109,9 +5845,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7119,7 +5853,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7130,7 +5864,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7139,7 +5873,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7151,7 +5885,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7159,7 +5893,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7255,7 +5989,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7298,7 +6032,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7625,7 +6359,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7641,7 +6375,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7657,7 +6391,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7673,7 +6407,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7689,7 +6423,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7704,9 +6438,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7714,7 +6446,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7725,7 +6457,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7734,7 +6466,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7746,7 +6478,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7754,7 +6486,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7850,7 +6582,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7893,7 +6625,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8299,9 +7031,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8309,7 +7039,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8320,7 +7050,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8329,7 +7059,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8341,7 +7071,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8349,7 +7079,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8445,7 +7175,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8488,7 +7218,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8815,7 +7545,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8831,7 +7561,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8847,7 +7577,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8863,7 +7593,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8879,7 +7609,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8894,9 +7624,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8904,7 +7632,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8915,7 +7643,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8924,7 +7652,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8936,7 +7664,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8944,7 +7672,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9040,7 +7768,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9083,7 +7811,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9410,7 +8138,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9426,7 +8154,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9442,7 +8170,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9458,7 +8186,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9474,7 +8202,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9489,9 +8217,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>201</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9499,7 +8225,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9510,7 +8236,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9519,7 +8245,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9531,7 +8257,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9539,7 +8265,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9635,7 +8361,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9678,7 +8404,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10005,7 +8731,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10021,7 +8747,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10037,7 +8763,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10053,7 +8779,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10069,7 +8795,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10084,9 +8810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10094,7 +8818,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10105,7 +8829,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10114,7 +8838,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10126,7 +8850,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10134,7 +8858,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10230,7 +8954,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10273,7 +8997,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10600,7 +9324,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10616,7 +9340,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10632,7 +9356,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10648,7 +9372,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10664,7 +9388,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10679,9 +9403,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10689,7 +9411,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10700,7 +9422,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10709,7 +9431,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10721,7 +9443,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10729,7 +9451,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10825,7 +9547,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10868,7 +9590,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11195,7 +9917,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11211,7 +9933,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11227,7 +9949,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11243,7 +9965,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11259,7 +9981,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11274,9 +9996,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11284,7 +10004,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11295,7 +10015,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11304,7 +10024,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11316,7 +10036,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11324,7 +10044,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11420,7 +10140,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11463,7 +10183,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11790,7 +10510,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11806,7 +10526,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11822,7 +10542,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11838,7 +10558,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11854,7 +10574,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11869,9 +10589,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11879,7 +10597,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11890,7 +10608,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11899,7 +10617,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11911,7 +10629,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11919,7 +10637,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12015,7 +10733,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12058,7 +10776,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12385,7 +11103,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12401,7 +11119,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12417,7 +11135,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12433,7 +11151,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12449,7 +11167,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12464,9 +11182,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12474,7 +11190,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12485,7 +11201,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12494,7 +11210,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12506,7 +11222,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12514,7 +11230,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12610,7 +11326,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12653,7 +11369,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12980,7 +11696,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12996,7 +11712,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13012,7 +11728,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13028,7 +11744,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13044,7 +11760,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13059,9 +11775,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13069,7 +11783,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13080,7 +11794,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13089,7 +11803,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13101,7 +11815,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13109,7 +11823,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13205,7 +11919,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13248,7 +11962,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13575,7 +12289,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13591,7 +12305,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13607,7 +12321,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13623,7 +12337,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13639,7 +12353,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13654,9 +12368,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>253</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13664,7 +12376,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13675,7 +12387,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13684,7 +12396,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13696,7 +12408,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13704,7 +12416,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13800,7 +12512,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13843,7 +12555,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14170,7 +12882,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14186,7 +12898,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14202,7 +12914,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14218,7 +12930,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14234,7 +12946,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14249,9 +12961,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14259,7 +12969,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14270,7 +12980,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14279,7 +12989,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14291,7 +13001,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14299,7 +13009,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14395,7 +13105,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14438,7 +13148,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14765,7 +13475,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14781,7 +13491,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14797,7 +13507,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14813,7 +13523,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14829,7 +13539,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14844,9 +13554,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14854,7 +13562,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14865,7 +13573,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14874,7 +13582,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14886,7 +13594,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14894,7 +13602,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14990,7 +13698,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15033,7 +13741,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15360,7 +14068,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15376,7 +14084,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15392,7 +14100,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15408,7 +14116,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15424,7 +14132,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15439,9 +14147,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15449,7 +14155,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15460,7 +14166,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15469,7 +14175,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15481,7 +14187,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15489,7 +14195,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15585,7 +14291,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15628,7 +14334,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15955,7 +14661,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15971,7 +14677,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15987,7 +14693,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16003,7 +14709,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16019,7 +14725,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16034,9 +14740,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16044,7 +14748,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16055,7 +14759,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16064,7 +14768,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16076,7 +14780,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16084,7 +14788,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16180,7 +14884,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16223,7 +14927,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16550,7 +15254,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16566,7 +15270,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16582,7 +15286,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16598,7 +15302,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16627,9 +15331,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16637,7 +15339,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16648,7 +15350,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16657,7 +15359,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16669,7 +15371,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16677,7 +15379,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16773,7 +15475,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16816,7 +15518,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17067,7 +15769,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -17117,7 +15821,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154478</v>
+        <v>20153653</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17141,7 +15845,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17157,7 +15861,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17172,7 +15876,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>280</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -17186,7 +15892,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>281</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -17200,7 +15908,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>282</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -17221,7 +15931,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -17230,14 +15942,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -17247,13 +15963,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>283</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -17348,7 +16068,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17374,7 +16094,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -17388,7 +16110,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -17690,7 +16414,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153653</v>
+        <v>20153648</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17714,7 +16438,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17730,7 +16454,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17746,7 +16470,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17762,7 +16486,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17778,7 +16502,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17793,9 +16517,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17803,7 +16525,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17814,7 +16536,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17823,7 +16545,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17835,7 +16557,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17843,7 +16565,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17939,7 +16661,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17966,7 +16688,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17982,7 +16704,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18285,7 +17007,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153648</v>
+        <v>20153638</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18309,7 +17031,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18325,7 +17047,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18341,7 +17063,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18357,7 +17079,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18373,7 +17095,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18388,9 +17110,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18398,7 +17118,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18409,7 +17129,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18418,7 +17138,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18430,7 +17150,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18438,7 +17158,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18534,7 +17254,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18577,7 +17297,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18880,7 +17600,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153638</v>
+        <v>20153640</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18904,7 +17624,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18920,7 +17640,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18936,7 +17656,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18952,7 +17672,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18968,7 +17688,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18983,9 +17703,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18993,7 +17711,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19004,7 +17722,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19013,7 +17731,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19025,7 +17743,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19033,7 +17751,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19129,7 +17847,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19172,7 +17890,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>311</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19375,601 +18093,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153640</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -19993,7 +18116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20150,7 +18273,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20166,7 +18289,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20182,7 +18305,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20198,7 +18321,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20214,7 +18337,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20229,9 +18352,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20239,7 +18360,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20250,7 +18371,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20259,7 +18380,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20271,7 +18392,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20279,7 +18400,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20375,7 +18496,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20418,7 +18539,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20745,7 +18866,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20761,7 +18882,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20777,7 +18898,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20793,7 +18914,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20809,7 +18930,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20824,9 +18945,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20834,7 +18953,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20845,7 +18964,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20854,7 +18973,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20866,7 +18985,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20874,7 +18993,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20970,7 +19089,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21013,7 +19132,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21340,7 +19459,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21356,7 +19475,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21372,7 +19491,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21388,7 +19507,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21404,7 +19523,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21419,9 +19538,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21429,7 +19546,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21440,7 +19557,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21449,7 +19566,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21461,7 +19578,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21469,7 +19586,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21565,7 +19682,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21608,7 +19725,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21935,7 +20052,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21951,7 +20068,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21967,7 +20084,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21983,7 +20100,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21999,7 +20116,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22014,9 +20131,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22024,7 +20139,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22035,7 +20150,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22044,7 +20159,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22056,7 +20171,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22064,7 +20179,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22160,7 +20275,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22203,7 +20318,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22530,7 +20645,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22546,7 +20661,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22562,7 +20677,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22578,7 +20693,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22594,7 +20709,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22609,9 +20724,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22619,7 +20732,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22630,7 +20743,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22639,7 +20752,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22651,7 +20764,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22659,7 +20772,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22755,7 +20868,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22798,7 +20911,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23125,7 +21238,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23141,7 +21254,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23157,7 +21270,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23173,7 +21286,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23189,7 +21302,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23204,9 +21317,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23214,7 +21325,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23225,7 +21336,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23234,7 +21345,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23246,7 +21357,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23254,7 +21365,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23350,7 +21461,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23393,7 +21504,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
